--- a/Project/Excel Files/Individual_Modification.xlsx
+++ b/Project/Excel Files/Individual_Modification.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\TSL694\test\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace-selenium_maven_jenkins\SoftPAC\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3910F07B-389E-4A49-AFA7-B283AE127E73}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73525335-EB02-4DB6-A3C9-32D948F63A2F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{E51D0A55-90E7-4F0A-B456-1CBAB168D38F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="189">
   <si>
     <t>GOTOURL</t>
   </si>
@@ -160,9 +160,6 @@
     <t>aadhar</t>
   </si>
   <si>
-    <t>//*[@id="tab_menu_3"]/div</t>
-  </si>
-  <si>
     <t>Address1</t>
   </si>
   <si>
@@ -593,6 +590,9 @@
   </si>
   <si>
     <t>custmaritalstatus</t>
+  </si>
+  <si>
+    <t>tab_menu_3</t>
   </si>
 </sst>
 </file>
@@ -983,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238381A6-542A-46F4-96F5-C4B39F481628}">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1024,7 +1024,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -1231,7 +1231,7 @@
         <v>21</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1275,7 +1275,7 @@
         <v>21</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1307,7 +1307,7 @@
         <v>21</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1349,7 +1349,7 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1385,7 +1385,7 @@
         <v>21</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1403,7 +1403,7 @@
         <v>21</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1435,7 +1435,7 @@
         <v>21</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1465,7 +1465,7 @@
         <v>21</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
         <v>21</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1600,7 +1600,7 @@
         <v>9</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>14</v>
@@ -1611,7 +1611,7 @@
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1705,7 +1705,7 @@
         <v>21</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1726,7 +1726,7 @@
         <v>19</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>3</v>
@@ -1740,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>3</v>
@@ -1749,7 +1749,7 @@
         <v>21</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1858,16 +1858,16 @@
         <v>27</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="E61" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1888,7 +1888,7 @@
         <v>27</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>3</v>
@@ -1897,195 +1897,203 @@
         <v>21</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F65" s="4"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
+      <c r="E67" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>100</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="4"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
+      <c r="E70" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>101</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="4"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
+      <c r="E73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>47</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="4"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
+      <c r="E76" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>48</v>
@@ -2093,168 +2101,168 @@
       <c r="D77" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="4"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>181</v>
+        <v>50</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>50</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
+      <c r="E83" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E85" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F85" s="4"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="4"/>
       <c r="F86" s="4"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
+      <c r="E87" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>3</v>
@@ -2263,7 +2271,7 @@
         <v>21</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2281,7 +2289,7 @@
         <v>21</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2290,7 +2298,7 @@
         <v>27</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>188</v>
+        <v>54</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>3</v>
@@ -2299,126 +2307,108 @@
         <v>21</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>110</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F92" s="4"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="4"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F96" s="4"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4" t="s">
-        <v>61</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" s="4"/>
       <c r="F97" s="4"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2444,28 +2434,28 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="D1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>35</v>
@@ -2480,10 +2470,10 @@
         <v>40</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>42</v>
@@ -2492,429 +2482,429 @@
         <v>43</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="S1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="U1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AC1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
         <v>124</v>
       </c>
-      <c r="B2" t="s">
-        <v>125</v>
-      </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="S2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AC2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AB3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AC3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AD3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z5" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AB5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
